--- a/Checklist requete.xlsx
+++ b/Checklist requete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t xml:space="preserve">REQUETES G2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">MEDIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
   </si>
   <si>
     <t xml:space="preserve">Qui est le chauffeur qui a le plus conduit pendant telle durée</t>
@@ -499,9 +502,6 @@
   </si>
   <si>
     <t xml:space="preserve">le nombre de clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check</t>
   </si>
   <si>
     <t xml:space="preserve">liste des choix d'offre des clients</t>
@@ -514,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -567,11 +567,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Courier New&quot;"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -584,13 +597,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -650,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,15 +681,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,13 +780,15 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="126"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="161.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -801,9 +817,10 @@
       <c r="C3" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -812,10 +829,13 @@
       <c r="C4" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -823,32 +843,37 @@
       <c r="C5" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -856,32 +881,37 @@
       <c r="C8" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -889,10 +919,11 @@
       <c r="C11" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -900,43 +931,47 @@
       <c r="C12" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>21</v>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -944,10 +979,11 @@
       <c r="C16" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -955,21 +991,23 @@
       <c r="C17" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
@@ -977,32 +1015,35 @@
       <c r="C19" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1010,10 +1051,11 @@
       <c r="C22" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>29</v>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -1021,10 +1063,11 @@
       <c r="C23" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -1032,10 +1075,11 @@
       <c r="C24" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
@@ -1043,21 +1087,23 @@
       <c r="C25" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
@@ -1065,21 +1111,23 @@
       <c r="C27" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>34</v>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>35</v>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -1087,10 +1135,11 @@
       <c r="C29" s="5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>36</v>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>6</v>
@@ -1098,10 +1147,11 @@
       <c r="C30" s="5" t="n">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>37</v>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
@@ -1109,87 +1159,95 @@
       <c r="C31" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>38</v>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>39</v>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>41</v>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>42</v>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>43</v>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
@@ -1197,43 +1255,47 @@
       <c r="C39" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>47</v>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>48</v>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>49</v>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>50</v>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>4</v>
@@ -1241,10 +1303,11 @@
       <c r="C43" s="5" t="n">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>51</v>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>6</v>
@@ -1252,21 +1315,23 @@
       <c r="C44" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>52</v>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>53</v>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>6</v>
@@ -1274,10 +1339,11 @@
       <c r="C46" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>54</v>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>6</v>
@@ -1285,21 +1351,23 @@
       <c r="C47" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>55</v>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
@@ -1307,32 +1375,35 @@
       <c r="C49" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>58</v>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>60</v>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>6</v>
@@ -1340,32 +1411,35 @@
       <c r="C52" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>61</v>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>62</v>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>63</v>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>6</v>
@@ -1373,10 +1447,11 @@
       <c r="C55" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>64</v>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>6</v>
@@ -1384,43 +1459,47 @@
       <c r="C56" s="5" t="n">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>65</v>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>66</v>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>6</v>
@@ -1428,10 +1507,11 @@
       <c r="C60" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>69</v>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>6</v>
@@ -1439,10 +1519,11 @@
       <c r="C61" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>70</v>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>6</v>
@@ -1450,32 +1531,37 @@
       <c r="C62" s="5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>71</v>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" s="5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>73</v>
+      <c r="D64" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>6</v>
@@ -1483,21 +1569,23 @@
       <c r="C65" s="5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>74</v>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" s="5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>75</v>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>6</v>
@@ -1505,33 +1593,36 @@
       <c r="C67" s="5" t="n">
         <v>4</v>
       </c>
+      <c r="D67" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist requete.xlsx
+++ b/Checklist requete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t xml:space="preserve">REQUETES G2</t>
   </si>
@@ -514,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -579,12 +579,6 @@
       <name val="&quot;Courier New&quot;"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -656,7 +650,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,10 +689,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -780,11 +770,11 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="161.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
@@ -881,7 +871,7 @@
       <c r="C8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1087,7 +1077,9 @@
       <c r="C25" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">

--- a/Checklist requete.xlsx
+++ b/Checklist requete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t xml:space="preserve">REQUETES G2</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">-les places disponibles pour une date et une ville pour la classe lite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check/2</t>
   </si>
   <si>
     <r>
@@ -770,11 +773,11 @@
   </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="161.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
@@ -981,11 +984,13 @@
       <c r="C17" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -997,7 +1002,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
@@ -1009,7 +1014,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1021,7 +1026,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -1033,7 +1038,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1045,7 +1050,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -1057,7 +1062,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -1069,7 +1074,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
@@ -1083,7 +1088,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>19</v>
@@ -1095,7 +1100,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
@@ -1107,7 +1112,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>19</v>
@@ -1119,7 +1124,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -1131,7 +1136,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>6</v>
@@ -1143,7 +1148,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
@@ -1155,7 +1160,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1167,10 +1172,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>8</v>
@@ -1179,7 +1184,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
@@ -1191,7 +1196,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>10</v>
@@ -1203,7 +1208,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>19</v>
@@ -1215,7 +1220,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>19</v>
@@ -1227,7 +1232,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>19</v>
@@ -1239,7 +1244,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
@@ -1251,7 +1256,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>19</v>
@@ -1263,7 +1268,7 @@
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>19</v>
@@ -1275,7 +1280,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>10</v>
@@ -1287,7 +1292,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>4</v>
@@ -1299,7 +1304,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>6</v>
@@ -1311,7 +1316,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>19</v>
@@ -1323,7 +1328,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>6</v>
@@ -1335,7 +1340,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>6</v>
@@ -1347,7 +1352,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
@@ -1359,7 +1364,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
@@ -1371,7 +1376,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>12</v>
@@ -1383,10 +1388,10 @@
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>7</v>
@@ -1395,7 +1400,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>6</v>
@@ -1407,7 +1412,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -1419,7 +1424,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>12</v>
@@ -1431,7 +1436,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>6</v>
@@ -1439,11 +1444,13 @@
       <c r="C55" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>6</v>
@@ -1455,7 +1462,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>19</v>
@@ -1467,7 +1474,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>19</v>
@@ -1479,10 +1486,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>6</v>
@@ -1491,7 +1498,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>6</v>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>6</v>
@@ -1515,7 +1522,7 @@
     </row>
     <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>6</v>
@@ -1527,7 +1534,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>10</v>
@@ -1539,7 +1546,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>12</v>
@@ -1553,7 +1560,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>6</v>
@@ -1565,10 +1572,10 @@
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5" t="n">
         <v>4</v>
@@ -1577,7 +1584,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>6</v>
@@ -1591,7 +1598,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>19</v>
@@ -1605,7 +1612,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>12</v>

--- a/Checklist requete.xlsx
+++ b/Checklist requete.xlsx
@@ -92,12 +92,6 @@
     <t>afficher les revenus journalièrs, mensuels, annuels.</t>
   </si>
   <si>
-    <t>afficher le nom des villes de destinations, les offres liés avec avec leur tarif.</t>
-  </si>
-  <si>
-    <t>-les places disponibles pour une date et une ville pour la classe lite.</t>
-  </si>
-  <si>
     <t>Quel montant a été récolté à tel ou tel moment</t>
   </si>
   <si>
@@ -228,7 +222,182 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> afficher tous les vehicules qui peuvent etre utilisés pour un voyage</t>
+      <t xml:space="preserve">les voyages à refaire sans changer la place des passagers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(plutôt une requête avancée, comment copier une ligne ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">les jours qui n'ont aucun réservation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(jour de la semaine ? ou bien toutes les dates ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les clients qui ont reservé un voyage vers Diego avec comme ville de départ Majunga. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ou d'autres villes en fait)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Receuillir toutes informations du vehicules et ses besoins </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(notion de besoin a renforcer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">le nombre de voiture en panne </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(à l'heure actuelle ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le nom des chauffeurs qui conduiront l'allerretour </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vous prenez en compte la notion d'aller retour ? )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cherchez les clients qui ont reservé pour fianarantsoa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(OU UNE VILLE x EN FAIT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avoir le numéro du chauffeur qui conduisait le vehicule avec le matricule </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Matricule)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(date)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">les infos des chauffeurs absents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(qu'est ce qu'un chauffeur absent ? )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">afficher tous les matricule des voitures qui vont à une certaine ville, et leur état. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(notion de voyage inclus ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>les voyages annulé a cause du mauvais temps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (faudrait penser à comment introduire la notion d'annuler un voyage ?)</t>
+    </r>
+  </si>
+  <si>
+    <t>les places disponibles pour une date et une ville pour la classe lite.</t>
+  </si>
+  <si>
+    <r>
+      <t>afficher tous les vehicules qui peuvent etre utilisés pour un voyage</t>
     </r>
     <r>
       <rPr>
@@ -241,176 +410,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">les voyages à refaire sans changer la place des passagers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(plutôt une requête avancée, comment copier une ligne ?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">les jours qui n'ont aucun réservation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(jour de la semaine ? ou bien toutes les dates ?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les clients qui ont reservé un voyage vers Diego avec comme ville de départ Majunga. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ou d'autres villes en fait)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Receuillir toutes informations du vehicules et ses besoins </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(notion de besoin a renforcer)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">le nombre de voiture en panne </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(à l'heure actuelle ?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le nom des chauffeurs qui conduiront l'allerretour </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(vous prenez en compte la notion d'aller retour ? )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cherchez les clients qui ont reservé pour fianarantsoa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(OU UNE VILLE x EN FAIT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Avoir le numéro du chauffeur qui conduisait le vehicule avec le matricule </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Matricule)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> le </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(date)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">les infos des chauffeurs absents </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(qu'est ce qu'un chauffeur absent ? )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">afficher tous les matricule des voitures qui vont à une certaine ville, et leur état. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(notion de voyage inclus ?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>les voyages annulé a cause du mauvais temps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (faudrait penser à comment introduire la notion d'annuler un voyage ?)</t>
-    </r>
+    <t>afficher le nom des villes de destinations, les offres liés avec leur tarif.</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -981,7 +981,7 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1037,7 +1037,7 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1122,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -1150,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1191,8 +1191,8 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>26</v>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>6</v>
@@ -1220,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -1262,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
@@ -1290,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -1304,7 +1304,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
@@ -1318,7 +1318,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
@@ -1332,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
@@ -1346,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
@@ -1360,10 +1360,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4">
         <v>8</v>
@@ -1374,7 +1374,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
@@ -1388,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -1402,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>18</v>
@@ -1416,7 +1416,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>18</v>
@@ -1430,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>18</v>
@@ -1443,8 +1443,8 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>43</v>
+      <c r="B39" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
@@ -1458,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>18</v>
@@ -1471,8 +1471,8 @@
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>70</v>
+      <c r="B41" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>18</v>
@@ -1486,7 +1486,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
@@ -1500,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -1514,7 +1514,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
@@ -1528,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>18</v>
@@ -1542,7 +1542,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>6</v>
@@ -1570,7 +1570,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>18</v>
@@ -1584,7 +1584,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>6</v>
@@ -1598,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
@@ -1612,10 +1612,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
         <v>7</v>
@@ -1626,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>18</v>
@@ -1654,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>11</v>
@@ -1668,7 +1668,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>6</v>
@@ -1682,7 +1682,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>6</v>
@@ -1695,8 +1695,8 @@
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>56</v>
+      <c r="B57" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>18</v>
@@ -1710,7 +1710,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>18</v>
@@ -1724,10 +1724,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4">
         <v>6</v>
@@ -1738,7 +1738,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>6</v>
@@ -1752,7 +1752,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>6</v>
@@ -1766,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>6</v>
@@ -1780,7 +1780,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>9</v>
@@ -1794,7 +1794,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
@@ -1808,7 +1808,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>6</v>
@@ -1822,10 +1822,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
@@ -1836,7 +1836,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>6</v>
@@ -1850,7 +1850,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>18</v>
@@ -1864,7 +1864,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>11</v>
